--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D7EB59-5DC6-834C-A13F-A669CE102E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11B975C-4F34-A64E-A7AD-404161D6BB50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3480" uniqueCount="1942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3479" uniqueCount="1941">
   <si>
     <t>sub, div, delta, add, con, acos, asin, sin, cos</t>
   </si>
@@ -634,228 +634,228 @@
     <t>add, con, ang_vel, delta, protected div, sub, asin, acos, cos, sin, max, limit with 75 pop</t>
   </si>
   <si>
+    <t xml:space="preserve">cos, max, vel, conditonal, asin, y2, x3, sin, limit, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1, cos, sub, asin, conditonal, vel, x3, limit, </t>
+  </si>
+  <si>
+    <t>Did not work</t>
+  </si>
+  <si>
+    <t>protectedDiv(delta(sub(x3, x2), x1), acos(y3, y2))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditonal, ang_vel, max, limit, y1, add, asin, cos, sin, </t>
+  </si>
+  <si>
     <t xml:space="preserve">y3, x2, y2, x3, acos, protectedDiv, delta, sub, x1, </t>
   </si>
   <si>
-    <t xml:space="preserve">cos, max, vel, conditonal, asin, y2, x3, sin, limit, </t>
+    <t xml:space="preserve">conditonal, max, add, x3, cos, asin, y2, limit, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y3, sin, x2, x1, ang_vel, delta, y1, conditional, protectedDiv, acos, sub, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditonal, add, sin, cos, delta, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit, max, y2, protectedDiv, x2, y1, acos, ang_vel, sub, y3, x3, x1, asin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditonal, delta, acos, add, cos, sub, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit, sin, ang_vel, protectedDiv, y1, asin, x1, y3, y2, x3, max, x2, conditional, </t>
+  </si>
+  <si>
+    <t>moved to side as stabilizing</t>
+  </si>
+  <si>
+    <t>add(ang_vel(x1, x2, limit(protectedDiv(x3, x3), sub(x3, x1), conditional(x1, y3)), y3), add(protectedDiv(y3, delta(x1, y1)), add(asin(ang_vel(y2, y2, x1, x1), add(asin(x2, x3), protectedDiv(x1, y1))), protectedDiv(x1, y1))))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max, sin, acos, conditonal, cos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub, y2, delta, ang_vel, add, x2, asin, x1, y3, protectedDiv, y1, limit, conditional, x3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin, sub, conditonal, protectedDiv, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asin, y2, acos, x3, delta, y1, y3, ang_vel, x1, add, x2, max, limit, cos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asin, conditonal, limit, acos, x2, delta, max, protectedDiv, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional, y1, x3, cos, sub, y2, y3, sin, x1, ang_vel, add, </t>
+  </si>
+  <si>
+    <t>could not work</t>
+  </si>
+  <si>
+    <t>ang_vel(asin(x3, x1), acos(y2, y3), max(x2, x1), max(x2, x1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y1, delta, protectedDiv, add, cos, limit, sub, sin, conditonal, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2, ang_vel, max, y3, x3, asin, y2, acos, x1, </t>
+  </si>
+  <si>
+    <t>forces it up and balances</t>
+  </si>
+  <si>
+    <t>protectedDiv(delta(cos(limit(sin(x2), asin(asin(y3, x2), x3), delta(cos(limit(max(y1, y3), x3, cos(add(conditional(delta(x3, y1), conditional(x3, x2)), max(asin(y2, sin(acos(y3, y3))), cos(y2)))))), y3))), y3), x3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ang_vel, sub, conditonal, x1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y2, protectedDiv, asin, delta, limit, cos, max, sin, y1, x3, x2, conditional, add, y3, acos, </t>
+  </si>
+  <si>
+    <t>forced it up then balanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cos, acos, asin, conditonal, sub, max, sin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta, y2, x1, ang_vel, protectedDiv, y3, conditional, limit, x2, y1, add, x3, </t>
+  </si>
+  <si>
+    <t>always forced right and then fell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub, cos, conditonal, protectedDiv, y2, y1, max, limit, add, acos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2, sin, asin, x1, y3, x3, delta, ang_vel, </t>
+  </si>
+  <si>
+    <t>held it up for a bit then gave up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditonal, cos, asin, acos, add, delta, max, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2, y3, ang_vel, limit, y1, x3, x1, sub, conditional, sin, y2, protectedDiv, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin, conditonal, y2, delta, sub, cos, asin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y1, x3, protectedDiv, y3, x2, acos, add, limit, x1, max, ang_vel, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin, delta, conditonal, asin, protectedDiv, limit, cos, y2, acos, x3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1, add, x2, max, sub, y3, ang_vel, y1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acos, max, y1, protectedDiv, asin, conditonal, sub, cos, y3, add, ang_vel, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1, y2, x2, conditional, x3, delta, limit, sin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y2, cos, sin, acos, delta, max, ang_vel, conditonal, limit, sub, x2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y3, conditional, protectedDiv, y1, x3, x1, asin, add, </t>
+  </si>
+  <si>
+    <t>ang_vel(asin(x2, x1), sin(x2), delta(limit(y1, cos(asin(max(y1, x1), x1)), x1), x2), cos(ang_vel(x2, y1, y2, max(x2, y2))))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protectedDiv, y3, acos, add, conditonal, sub, x3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y2, asin, y1, ang_vel, delta, x1, sin, cos, x2, max, limit, </t>
+  </si>
+  <si>
+    <t>forced it up and held it</t>
+  </si>
+  <si>
+    <t>add(x1, ang_vel(delta(x2, x1), x2, x1, y1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditonal, cos, y3, max, y2, limit, protectedDiv, asin, sub, x3, acos, sin, </t>
   </si>
   <si>
     <t xml:space="preserve">x2, delta, y1, add, x1, ang_vel, </t>
   </si>
   <si>
-    <t xml:space="preserve">x1, cos, sub, asin, conditonal, vel, x3, limit, </t>
+    <t>very odd stabilize but owrks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cos, add, conditonal, delta, max, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub, x2, sin, limit, y1, ang_vel, y2, asin, protectedDiv, x3, y3, acos, x1, </t>
+  </si>
+  <si>
+    <t>sub(add(delta(y1, x1), delta(delta(delta(y1, x3), limit(y3, y3, y2)), y1)), asin(limit(max(max(cos(y1), ang_vel(y2, y3, x2, conditional(delta(x2, x3), acos(x2, y1)))), limit(max(sub(x3, asin(conditional(delta(y1, x1), acos(x2, x2)), cos(x2))), ang_vel(x1, x2, x2, y1)), y3, x2)), sub(add(x1, y3), cos(y2)), x2), sin(conditional(x2, x3))))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protectedDiv, conditonal, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add, cos, acos, y2, delta, y1, limit, conditional, sin, asin, max, x1, y3, x2, x3, sub, ang_vel, </t>
+  </si>
+  <si>
+    <t>stabilize at angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit, delta, acos, conditonal, max, ang_vel, sin, y2, cos, sub, y1, y3, protectedDiv, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1, x3, add, x2, asin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditonal, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sin, asin, cos, y1, add, max, y2, x3, acos, limit, x1, protectedDiv, ang_vel, sub, conditional, delta, y3, x2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protectedDiv, sub, delta, conditonal, max, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y3, x1, y1, conditional, y2, x3, sin, asin, limit, acos, x2, add, ang_vel, cos, </t>
+  </si>
+  <si>
+    <t>weak attempt at stabilize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditonal, cos, add, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">asin, max, sin, y1, x1, sub, y2, delta, protectedDiv, x2, ang_vel, x3, conditional, acos, y3, limit, </t>
+  </si>
+  <si>
+    <t>weak movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asin, y3, x1, delta, conditonal, ang_vel, protectedDiv, y1, acos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub, max, sin, x2, cos, x3, add, limit, y2, </t>
+  </si>
+  <si>
+    <t>protectedDiv(x3, conditional(limit(sub(y3, x2), asin(y3, x1), asin(add(y2, y1), x3)), x1))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cos, max, delta, acos, conditonal, ang_vel, sin, </t>
   </si>
   <si>
     <t xml:space="preserve">x2, limit, y2, conditional, x3, asin, y3, y1, sub, protectedDiv, add, x1, </t>
   </si>
   <si>
-    <t>Did not work</t>
-  </si>
-  <si>
-    <t>protectedDiv(delta(sub(x3, x2), x1), acos(y3, y2))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, ang_vel, max, limit, y1, add, asin, cos, sin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, max, add, x3, cos, asin, y2, limit, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y3, sin, x2, x1, ang_vel, delta, y1, conditional, protectedDiv, acos, sub, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, add, sin, cos, delta, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">limit, max, y2, protectedDiv, x2, y1, acos, ang_vel, sub, y3, x3, x1, asin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, cos, y3, max, y2, limit, protectedDiv, asin, sub, x3, acos, sin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, delta, acos, add, cos, sub, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">limit, sin, ang_vel, protectedDiv, y1, asin, x1, y3, y2, x3, max, x2, conditional, </t>
-  </si>
-  <si>
-    <t>moved to side as stabilizing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cos, max, delta, acos, conditonal, ang_vel, sin, </t>
-  </si>
-  <si>
-    <t>add(ang_vel(x1, x2, limit(protectedDiv(x3, x3), sub(x3, x1), conditional(x1, y3)), y3), add(protectedDiv(y3, delta(x1, y1)), add(asin(ang_vel(y2, y2, x1, x1), add(asin(x2, x3), protectedDiv(x1, y1))), protectedDiv(x1, y1))))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max, sin, acos, conditonal, cos, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub, y2, delta, ang_vel, add, x2, asin, x1, y3, protectedDiv, y1, limit, conditional, x3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sin, sub, conditonal, protectedDiv, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">asin, y2, acos, x3, delta, y1, y3, ang_vel, x1, add, x2, max, limit, cos, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">asin, conditonal, limit, acos, x2, delta, max, protectedDiv, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditional, y1, x3, cos, sub, y2, y3, sin, x1, ang_vel, add, </t>
-  </si>
-  <si>
-    <t>could not work</t>
-  </si>
-  <si>
-    <t>ang_vel(asin(x3, x1), acos(y2, y3), max(x2, x1), max(x2, x1))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y1, delta, protectedDiv, add, cos, limit, sub, sin, conditonal, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x2, ang_vel, max, y3, x3, asin, y2, acos, x1, </t>
-  </si>
-  <si>
-    <t>forces it up and balances</t>
-  </si>
-  <si>
-    <t>protectedDiv(delta(cos(limit(sin(x2), asin(asin(y3, x2), x3), delta(cos(limit(max(y1, y3), x3, cos(add(conditional(delta(x3, y1), conditional(x3, x2)), max(asin(y2, sin(acos(y3, y3))), cos(y2)))))), y3))), y3), x3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ang_vel, sub, conditonal, x1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y2, protectedDiv, asin, delta, limit, cos, max, sin, y1, x3, x2, conditional, add, y3, acos, </t>
-  </si>
-  <si>
-    <t>forced it up then balanced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cos, acos, asin, conditonal, sub, max, sin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">delta, y2, x1, ang_vel, protectedDiv, y3, conditional, limit, x2, y1, add, x3, </t>
-  </si>
-  <si>
-    <t>always forced right and then fell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub, cos, conditonal, protectedDiv, y2, y1, max, limit, add, acos, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x2, sin, asin, x1, y3, x3, delta, ang_vel, </t>
-  </si>
-  <si>
-    <t>held it up for a bit then gave up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, cos, asin, acos, add, delta, max, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x2, y3, ang_vel, limit, y1, x3, x1, sub, conditional, sin, y2, protectedDiv, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sin, conditonal, y2, delta, sub, cos, asin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y1, x3, protectedDiv, y3, x2, acos, add, limit, x1, max, ang_vel, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sin, delta, conditonal, asin, protectedDiv, limit, cos, y2, acos, x3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1, add, x2, max, sub, y3, ang_vel, y1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acos, max, y1, protectedDiv, asin, conditonal, sub, cos, y3, add, ang_vel, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1, y2, x2, conditional, x3, delta, limit, sin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y2, cos, sin, acos, delta, max, ang_vel, conditonal, limit, sub, x2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y3, conditional, protectedDiv, y1, x3, x1, asin, add, </t>
-  </si>
-  <si>
-    <t>ang_vel(asin(x2, x1), sin(x2), delta(limit(y1, cos(asin(max(y1, x1), x1)), x1), x2), cos(ang_vel(x2, y1, y2, max(x2, y2))))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protectedDiv, y3, acos, add, conditonal, sub, x3, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y2, asin, y1, ang_vel, delta, x1, sin, cos, x2, max, limit, </t>
-  </si>
-  <si>
-    <t>forced it up and held it</t>
-  </si>
-  <si>
-    <t>add(x1, ang_vel(delta(x2, x1), x2, x1, y1))</t>
-  </si>
-  <si>
-    <t>very odd stabilize but owrks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cos, add, conditonal, delta, max, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub, x2, sin, limit, y1, ang_vel, y2, asin, protectedDiv, x3, y3, acos, x1, </t>
-  </si>
-  <si>
-    <t>sub(add(delta(y1, x1), delta(delta(delta(y1, x3), limit(y3, y3, y2)), y1)), asin(limit(max(max(cos(y1), ang_vel(y2, y3, x2, conditional(delta(x2, x3), acos(x2, y1)))), limit(max(sub(x3, asin(conditional(delta(y1, x1), acos(x2, x2)), cos(x2))), ang_vel(x1, x2, x2, y1)), y3, x2)), sub(add(x1, y3), cos(y2)), x2), sin(conditional(x2, x3))))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protectedDiv, conditonal, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">add, cos, acos, y2, delta, y1, limit, conditional, sin, asin, max, x1, y3, x2, x3, sub, ang_vel, </t>
-  </si>
-  <si>
-    <t>stabilize at angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limit, delta, acos, conditonal, max, ang_vel, sin, y2, cos, sub, y1, y3, protectedDiv, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1, x3, add, x2, asin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sin, asin, cos, y1, add, max, y2, x3, acos, limit, x1, protectedDiv, ang_vel, sub, conditional, delta, y3, x2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">protectedDiv, sub, delta, conditonal, max, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y3, x1, y1, conditional, y2, x3, sin, asin, limit, acos, x2, add, ang_vel, cos, </t>
-  </si>
-  <si>
-    <t>weak attempt at stabilize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditonal, cos, add, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">asin, max, sin, y1, x1, sub, y2, delta, protectedDiv, x2, ang_vel, x3, conditional, acos, y3, limit, </t>
-  </si>
-  <si>
-    <t>weak movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asin, y3, x1, delta, conditonal, ang_vel, protectedDiv, y1, acos, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub, max, sin, x2, cos, x3, add, limit, y2, </t>
-  </si>
-  <si>
-    <t>protectedDiv(x3, conditional(limit(sub(y3, x2), asin(y3, x1), asin(add(y2, y1), x3)), x1))</t>
-  </si>
-  <si>
     <t>worked by moving to the top</t>
   </si>
   <si>
@@ -2383,54 +2383,54 @@
     <t xml:space="preserve">sin, x1, x3, asin, limit, atan, y1, ang_vel, y3, </t>
   </si>
   <si>
+    <t xml:space="preserve">cos, sin, max, add, sub, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acos, conditional, x1, limit, x3, tan, y1, ang_vel, protectedDiv, y2, atan, y3, asin, x2, </t>
+  </si>
+  <si>
+    <t>add(y2, ang_vel(y1, y3, x2, y3))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tan, x3, atan, sub, x1, limit, sin, conditional, max, cos, asin, acos, protectedDiv, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y3, y1, y2, add, x2, ang_vel, </t>
+  </si>
+  <si>
+    <t>Good exampe of OC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional, x1, sub, atan, add, asin, acos, limit, sin, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">y2, protectedDiv, x2, max, ang_vel, tan, y1, cos, x3, y3, </t>
+  </si>
+  <si>
+    <t>atan(protectedDiv(ang_vel(conditional(atan(x3, x2), x1), asin(asin(x3, sin(x1)), y1), sub(x3, x1), sub(y3, sub(limit(y3, x3, x3), conditional(y1, x3)))), x1), sin(x1))</t>
+  </si>
+  <si>
     <t xml:space="preserve">cos, tan, max, y2, acos, add, </t>
   </si>
   <si>
-    <t xml:space="preserve">cos, sin, max, add, sub, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">acos, conditional, x1, limit, x3, tan, y1, ang_vel, protectedDiv, y2, atan, y3, asin, x2, </t>
+    <t xml:space="preserve">x1, asin, y3, sin, ang_vel, x2, y1, conditional, atan, limit, protectedDiv, x3, sub, </t>
+  </si>
+  <si>
+    <t>works really well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acos, protectedDiv, max, atan, y2, cos, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tan, sub, y1, sin, x1, limit, y3, add, x3, x2, conditional, ang_vel, asin, </t>
+  </si>
+  <si>
+    <t>ang_vel(protectedDiv(y3, ang_vel(x3, y2, y2, x3)), atan(ang_vel(x3, y1, y2, y2), x3), x2, sub(x2, x1))</t>
   </si>
   <si>
     <t xml:space="preserve">limit, acos, conditional, max, tan, add, cos, asin, sin, </t>
   </si>
   <si>
-    <t>add(y2, ang_vel(y1, y3, x2, y3))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tan, x3, atan, sub, x1, limit, sin, conditional, max, cos, asin, acos, protectedDiv, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y3, y1, y2, add, x2, ang_vel, </t>
-  </si>
-  <si>
-    <t>Good exampe of OC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conditional, x1, sub, atan, add, asin, acos, limit, sin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y2, protectedDiv, x2, max, ang_vel, tan, y1, cos, x3, y3, </t>
-  </si>
-  <si>
-    <t>atan(protectedDiv(ang_vel(conditional(atan(x3, x2), x1), asin(asin(x3, sin(x1)), y1), sub(x3, x1), sub(y3, sub(limit(y3, x3, x3), conditional(y1, x3)))), x1), sin(x1))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x1, asin, y3, sin, ang_vel, x2, y1, conditional, atan, limit, protectedDiv, x3, sub, </t>
-  </si>
-  <si>
-    <t>works really well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acos, protectedDiv, max, atan, y2, cos, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tan, sub, y1, sin, x1, limit, y3, add, x3, x2, conditional, ang_vel, asin, </t>
-  </si>
-  <si>
-    <t>ang_vel(protectedDiv(y3, ang_vel(x3, y2, y2, x3)), atan(ang_vel(x3, y1, y2, y2), x3), x2, sub(x2, x1))</t>
-  </si>
-  <si>
     <t xml:space="preserve">y3, sub, y1, x3, y2, atan, ang_vel, protectedDiv, x1, x2, </t>
   </si>
   <si>
@@ -5843,9 +5843,6 @@
   </si>
   <si>
     <t xml:space="preserve">asin, x1, min, y3, x3, y2, limit, protectedDiv, acos, ang_vel, x2, conditional, y1, if_then_else, add, max, sin, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -5929,7 +5926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5953,7 +5950,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6529,10 +6525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP949"/>
+  <dimension ref="A1:AP878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P589" zoomScale="88" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="AK601" sqref="AK601"/>
+    <sheetView tabSelected="1" topLeftCell="A860" zoomScale="88" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A879" sqref="A879:XFD1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21746,7 +21742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>-1049.462666942042</v>
       </c>
@@ -21841,7 +21837,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>-880.69796272409894</v>
       </c>
@@ -21936,7 +21932,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>-1071.6558726046089</v>
       </c>
@@ -22031,7 +22027,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>-956.60141631834665</v>
       </c>
@@ -22126,7 +22122,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>-1009.672999240976</v>
       </c>
@@ -22221,7 +22217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>-893.53738209189703</v>
       </c>
@@ -22316,7 +22312,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>-987.05475929106183</v>
       </c>
@@ -22411,28 +22407,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AJ184" s="15"/>
-      <c r="AK184" s="15"/>
-      <c r="AL184" s="15"/>
-      <c r="AM184" s="15"/>
-    </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AJ185" s="15"/>
-      <c r="AK185" s="15"/>
-      <c r="AL185" s="15"/>
-      <c r="AM185" s="15"/>
-    </row>
-    <row r="186" spans="1:39" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>203</v>
       </c>
-      <c r="AJ186" s="15"/>
-      <c r="AK186" s="15"/>
-      <c r="AL186" s="15"/>
-      <c r="AM186" s="15"/>
-    </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0</v>
       </c>
@@ -22511,12 +22491,8 @@
       <c r="Z187">
         <v>25</v>
       </c>
-      <c r="AJ187" s="15"/>
-      <c r="AK187" s="15"/>
-      <c r="AL187" s="15"/>
-      <c r="AM187" s="15"/>
-    </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>-1036.728650512154</v>
       </c>
@@ -22605,17 +22581,13 @@
         <v>28</v>
       </c>
       <c r="AD188" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF188" t="s">
         <v>81</v>
       </c>
-      <c r="AJ188" s="15"/>
-      <c r="AK188" s="15"/>
-      <c r="AL188" s="15"/>
-      <c r="AM188" s="15"/>
-    </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>-681.47953141619644</v>
       </c>
@@ -22704,17 +22676,13 @@
         <v>28</v>
       </c>
       <c r="AD189" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AF189" t="s">
         <v>116</v>
       </c>
-      <c r="AJ189" s="15"/>
-      <c r="AK189" s="15"/>
-      <c r="AL189" s="15"/>
-      <c r="AM189" s="15"/>
-    </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>-960.35029015809653</v>
       </c>
@@ -22803,14 +22771,10 @@
         <v>28</v>
       </c>
       <c r="AF190" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AJ190" s="15"/>
-      <c r="AK190" s="15"/>
-      <c r="AL190" s="15"/>
-      <c r="AM190" s="15"/>
-    </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>-1040.6435150208631</v>
       </c>
@@ -22896,23 +22860,19 @@
         <v>11</v>
       </c>
       <c r="AC191" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AD191" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AE191" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AF191" t="s">
         <v>15</v>
       </c>
-      <c r="AJ191" s="15"/>
-      <c r="AK191" s="15"/>
-      <c r="AL191" s="15"/>
-      <c r="AM191" s="15"/>
-    </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>-1056.2666004446301</v>
       </c>
@@ -23001,20 +22961,16 @@
         <v>28</v>
       </c>
       <c r="AD192" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AE192" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF192" t="s">
         <v>91</v>
       </c>
-      <c r="AJ192" s="15"/>
-      <c r="AK192" s="15"/>
-      <c r="AL192" s="15"/>
-      <c r="AM192" s="15"/>
-    </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>-898.63532243058739</v>
       </c>
@@ -23103,20 +23059,16 @@
         <v>28</v>
       </c>
       <c r="AD193" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AE193" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AF193" t="s">
         <v>158</v>
       </c>
-      <c r="AJ193" s="15"/>
-      <c r="AK193" s="15"/>
-      <c r="AL193" s="15"/>
-      <c r="AM193" s="15"/>
-    </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>-1001.8199349575179</v>
       </c>
@@ -23205,20 +23157,16 @@
         <v>28</v>
       </c>
       <c r="AD194" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AE194" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF194" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ194" s="15"/>
-      <c r="AK194" s="15"/>
-      <c r="AL194" s="15"/>
-      <c r="AM194" s="15"/>
-    </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>-1021.3944984205</v>
       </c>
@@ -23304,23 +23252,19 @@
         <v>11</v>
       </c>
       <c r="AC195" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AD195" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AE195" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AF195" t="s">
         <v>160</v>
       </c>
-      <c r="AJ195" s="15"/>
-      <c r="AK195" s="15"/>
-      <c r="AL195" s="15"/>
-      <c r="AM195" s="15"/>
-    </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>-921.78855576015212</v>
       </c>
@@ -23409,20 +23353,16 @@
         <v>28</v>
       </c>
       <c r="AD196" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AE196" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AF196" t="s">
         <v>116</v>
       </c>
-      <c r="AJ196" s="15"/>
-      <c r="AK196" s="15"/>
-      <c r="AL196" s="15"/>
-      <c r="AM196" s="15"/>
-    </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>-1035.926917563585</v>
       </c>
@@ -23511,20 +23451,16 @@
         <v>28</v>
       </c>
       <c r="AD197" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AE197" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AF197" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ197" s="15"/>
-      <c r="AK197" s="15"/>
-      <c r="AL197" s="15"/>
-      <c r="AM197" s="15"/>
-    </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>-925.91847360284828</v>
       </c>
@@ -23610,23 +23546,19 @@
         <v>11</v>
       </c>
       <c r="AC198" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AD198" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AE198" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AF198" t="s">
-        <v>232</v>
-      </c>
-      <c r="AJ198" s="15"/>
-      <c r="AK198" s="15"/>
-      <c r="AL198" s="15"/>
-      <c r="AM198" s="15"/>
-    </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>-962.8765700559203</v>
       </c>
@@ -23712,19 +23644,19 @@
         <v>11</v>
       </c>
       <c r="AC199" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AD199" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AE199" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF199" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>-1072.8599831358511</v>
       </c>
@@ -23813,16 +23745,16 @@
         <v>28</v>
       </c>
       <c r="AD200" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AE200" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AF200" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>-1022.7700356671349</v>
       </c>
@@ -23911,16 +23843,16 @@
         <v>28</v>
       </c>
       <c r="AD201" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AE201" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF201" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>-926.47044122858847</v>
       </c>
@@ -24009,16 +23941,16 @@
         <v>28</v>
       </c>
       <c r="AD202" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AE202" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AF202" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>-1033.655542468462</v>
       </c>
@@ -24107,16 +24039,16 @@
         <v>28</v>
       </c>
       <c r="AD203" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AE203" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AF203" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>-1075.9141166815909</v>
       </c>
@@ -24205,16 +24137,16 @@
         <v>28</v>
       </c>
       <c r="AD204" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AE204" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AF204" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>-1031.1734612266071</v>
       </c>
@@ -24303,16 +24235,16 @@
         <v>28</v>
       </c>
       <c r="AD205" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AE205" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AF205" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>-1051.1955353624239</v>
       </c>
@@ -24401,16 +24333,16 @@
         <v>28</v>
       </c>
       <c r="AD206" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AE206" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AF206" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>-1075.073680335297</v>
       </c>
@@ -24496,19 +24428,19 @@
         <v>11</v>
       </c>
       <c r="AC207" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AD207" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AE207" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF207" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>-1048.8927647464091</v>
       </c>
@@ -24594,16 +24526,16 @@
         <v>11</v>
       </c>
       <c r="AC208" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AD208" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="AE208" t="s">
-        <v>206</v>
+        <v>255</v>
       </c>
       <c r="AF208" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="1:32" x14ac:dyDescent="0.2">
@@ -24695,10 +24627,10 @@
         <v>28</v>
       </c>
       <c r="AD209" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AE209" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF209" t="s">
         <v>91</v>
@@ -24790,16 +24722,16 @@
         <v>11</v>
       </c>
       <c r="AC210" t="s">
+        <v>259</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE210" t="s">
         <v>261</v>
       </c>
-      <c r="AD210" t="s">
+      <c r="AF210" t="s">
         <v>262</v>
-      </c>
-      <c r="AE210" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF210" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="211" spans="1:32" x14ac:dyDescent="0.2">
@@ -24891,10 +24823,10 @@
         <v>28</v>
       </c>
       <c r="AD211" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AE211" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF211" t="s">
         <v>91</v>
@@ -24989,10 +24921,10 @@
         <v>28</v>
       </c>
       <c r="AD212" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AE212" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF212" t="s">
         <v>81</v>
@@ -25087,13 +25019,13 @@
         <v>28</v>
       </c>
       <c r="AD213" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF213" t="s">
         <v>269</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF213" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:32" x14ac:dyDescent="0.2">
@@ -25185,13 +25117,13 @@
         <v>28</v>
       </c>
       <c r="AD214" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF214" t="s">
         <v>272</v>
-      </c>
-      <c r="AE214" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF214" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.2">
@@ -25283,10 +25215,10 @@
         <v>28</v>
       </c>
       <c r="AD215" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AE215" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AF215" t="s">
         <v>156</v>
@@ -25378,13 +25310,13 @@
         <v>11</v>
       </c>
       <c r="AC216" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE216" t="s">
         <v>277</v>
-      </c>
-      <c r="AD216" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE216" t="s">
-        <v>208</v>
       </c>
       <c r="AF216" t="s">
         <v>278</v>
@@ -48331,10 +48263,10 @@
         <v>2</v>
       </c>
       <c r="AD467" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE467" t="s">
         <v>788</v>
-      </c>
-      <c r="AE467" t="s">
-        <v>789</v>
       </c>
       <c r="AF467" t="s">
         <v>148</v>
@@ -48426,16 +48358,16 @@
         <v>2</v>
       </c>
       <c r="AC468" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD468" t="s">
+        <v>790</v>
+      </c>
+      <c r="AE468" t="s">
         <v>791</v>
       </c>
-      <c r="AD468" t="s">
+      <c r="AF468" t="s">
         <v>792</v>
-      </c>
-      <c r="AE468" t="s">
-        <v>793</v>
-      </c>
-      <c r="AF468" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="469" spans="1:32" x14ac:dyDescent="0.2">
@@ -48524,10 +48456,10 @@
         <v>2</v>
       </c>
       <c r="AD469" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="AE469" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AF469" t="s">
         <v>81</v>
@@ -48619,16 +48551,16 @@
         <v>11</v>
       </c>
       <c r="AC470" t="s">
+        <v>795</v>
+      </c>
+      <c r="AD470" t="s">
+        <v>796</v>
+      </c>
+      <c r="AE470" t="s">
         <v>797</v>
       </c>
-      <c r="AD470" t="s">
-        <v>787</v>
-      </c>
-      <c r="AE470" t="s">
+      <c r="AF470" t="s">
         <v>798</v>
-      </c>
-      <c r="AF470" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="471" spans="1:32" x14ac:dyDescent="0.2">
@@ -48717,10 +48649,10 @@
         <v>2</v>
       </c>
       <c r="AD471" t="s">
+        <v>799</v>
+      </c>
+      <c r="AE471" t="s">
         <v>800</v>
-      </c>
-      <c r="AE471" t="s">
-        <v>801</v>
       </c>
       <c r="AF471" t="s">
         <v>128</v>
@@ -48812,10 +48744,10 @@
         <v>11</v>
       </c>
       <c r="AC472" t="s">
+        <v>801</v>
+      </c>
+      <c r="AD472" t="s">
         <v>802</v>
-      </c>
-      <c r="AD472" t="s">
-        <v>790</v>
       </c>
       <c r="AE472" t="s">
         <v>803</v>
@@ -58523,7 +58455,7 @@
         <v>1086</v>
       </c>
       <c r="AF577" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="578" spans="1:32" x14ac:dyDescent="0.2">
@@ -86513,266 +86445,6 @@
       <c r="AF878" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="880" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="AC880" s="15"/>
-    </row>
-    <row r="881" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB881"/>
-      <c r="AC881" s="15"/>
-      <c r="AE881"/>
-    </row>
-    <row r="882" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB882"/>
-      <c r="AC882" s="15"/>
-      <c r="AE882"/>
-    </row>
-    <row r="883" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB883"/>
-      <c r="AE883"/>
-    </row>
-    <row r="884" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB884"/>
-      <c r="AE884"/>
-    </row>
-    <row r="885" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB885"/>
-      <c r="AE885"/>
-    </row>
-    <row r="886" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB886"/>
-      <c r="AE886"/>
-    </row>
-    <row r="887" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB887"/>
-      <c r="AE887"/>
-    </row>
-    <row r="888" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB888"/>
-      <c r="AE888"/>
-    </row>
-    <row r="890" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB890"/>
-      <c r="AE890"/>
-    </row>
-    <row r="891" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB891"/>
-      <c r="AE891"/>
-    </row>
-    <row r="892" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB892"/>
-      <c r="AE892"/>
-    </row>
-    <row r="893" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="V893" t="s">
-        <v>1941</v>
-      </c>
-      <c r="AB893"/>
-      <c r="AE893"/>
-    </row>
-    <row r="894" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB894"/>
-      <c r="AE894"/>
-    </row>
-    <row r="896" spans="22:31" x14ac:dyDescent="0.2">
-      <c r="AB896"/>
-      <c r="AE896"/>
-    </row>
-    <row r="897" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB897"/>
-      <c r="AE897"/>
-    </row>
-    <row r="898" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB898"/>
-      <c r="AE898"/>
-    </row>
-    <row r="899" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB899"/>
-      <c r="AE899"/>
-    </row>
-    <row r="900" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB900"/>
-      <c r="AE900"/>
-    </row>
-    <row r="902" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB902"/>
-      <c r="AE902"/>
-    </row>
-    <row r="903" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB903"/>
-      <c r="AE903"/>
-    </row>
-    <row r="904" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB904"/>
-      <c r="AE904"/>
-    </row>
-    <row r="905" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB905"/>
-      <c r="AE905"/>
-    </row>
-    <row r="906" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB906"/>
-      <c r="AE906"/>
-    </row>
-    <row r="908" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB908"/>
-      <c r="AE908"/>
-    </row>
-    <row r="909" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB909"/>
-      <c r="AE909"/>
-    </row>
-    <row r="910" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB910"/>
-      <c r="AE910"/>
-    </row>
-    <row r="911" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB911"/>
-      <c r="AE911"/>
-    </row>
-    <row r="912" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB912"/>
-      <c r="AE912"/>
-    </row>
-    <row r="913" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB913"/>
-      <c r="AE913"/>
-    </row>
-    <row r="914" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB914"/>
-      <c r="AE914"/>
-    </row>
-    <row r="915" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB915"/>
-      <c r="AE915"/>
-    </row>
-    <row r="916" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB916"/>
-      <c r="AE916"/>
-    </row>
-    <row r="917" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB917"/>
-      <c r="AE917"/>
-    </row>
-    <row r="918" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB918"/>
-      <c r="AE918"/>
-    </row>
-    <row r="919" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB919"/>
-      <c r="AE919"/>
-    </row>
-    <row r="920" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB920"/>
-      <c r="AE920"/>
-    </row>
-    <row r="921" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB921"/>
-      <c r="AE921"/>
-    </row>
-    <row r="922" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB922"/>
-      <c r="AE922"/>
-    </row>
-    <row r="924" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB924"/>
-      <c r="AE924"/>
-    </row>
-    <row r="925" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB925"/>
-      <c r="AE925"/>
-    </row>
-    <row r="926" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB926"/>
-      <c r="AE926"/>
-    </row>
-    <row r="927" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB927"/>
-      <c r="AE927"/>
-    </row>
-    <row r="928" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB928"/>
-      <c r="AE928"/>
-    </row>
-    <row r="929" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB929"/>
-      <c r="AE929"/>
-    </row>
-    <row r="930" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB930"/>
-      <c r="AE930"/>
-    </row>
-    <row r="931" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB931"/>
-      <c r="AE931"/>
-    </row>
-    <row r="932" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB932"/>
-      <c r="AE932"/>
-    </row>
-    <row r="933" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB933"/>
-      <c r="AE933"/>
-    </row>
-    <row r="935" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB935"/>
-      <c r="AE935"/>
-    </row>
-    <row r="936" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB936"/>
-      <c r="AE936"/>
-    </row>
-    <row r="937" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB937"/>
-      <c r="AE937"/>
-    </row>
-    <row r="938" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB938"/>
-      <c r="AE938"/>
-    </row>
-    <row r="939" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB939"/>
-      <c r="AE939"/>
-    </row>
-    <row r="940" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB940"/>
-      <c r="AE940"/>
-    </row>
-    <row r="941" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB941"/>
-      <c r="AE941"/>
-    </row>
-    <row r="942" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB942"/>
-      <c r="AE942"/>
-    </row>
-    <row r="943" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB943"/>
-      <c r="AE943"/>
-    </row>
-    <row r="944" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB944"/>
-      <c r="AE944"/>
-    </row>
-    <row r="945" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB945"/>
-      <c r="AE945"/>
-    </row>
-    <row r="946" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB946"/>
-      <c r="AE946"/>
-    </row>
-    <row r="947" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB947"/>
-      <c r="AE947"/>
-    </row>
-    <row r="948" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB948"/>
-      <c r="AE948"/>
-    </row>
-    <row r="949" spans="28:31" x14ac:dyDescent="0.2">
-      <c r="AB949"/>
-      <c r="AE949"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB1:AB9 AB12:AB20 AB22:AB38 AB40 AB43:AB64 AB66:AB82 AB84:AB98 AB100:AB114 AB116:AB160 AB181:AB183 AB186:AB365 AB367:AB390 AB392:AB410 AB412:AB432 AB434:AB445 AB451 AB453:AB461 AB464:AB484 AB487:AB492 AB494:AB515 AB517:AB539 AB561 AB582 AB584:AB607 AB610:AB629 AB631:AB658 AB660:AB680 AB682:AB702 AB704:AB724 AB726:AB746 AB748:AB769 AB771:AB791 AB793:AB813 AB815:AB835 AB837:AB857 AB859:AB879 AB881:AB888 AB897:AB922 AB924:AB1048576 BP424:BP428">

--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -472,6 +472,546 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1079.124164279027</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-848.469530548085</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-848.469530548085</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-843.0308251850365</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-422.9664883515331</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-422.9664883515331</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-422.9664883515331</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-422.9664883515331</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-422.9664883515331</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-408.1464943031704</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-418.1918056887311</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-391.8626217612404</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-391.8626217612404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-391.8626217612404</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-359.0143706184192</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-391.8626217612404</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-391.8626217612404</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-391.8626217612404</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-378.0698146577363</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-368.8161587816912</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-368.8161587816912</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-368.8161587816912</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-297.3756495472674</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-295.9146378649457</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-295.9146378649457</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-276.3300181151498</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-276</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>protectedDiv(ang_vel(ang_vel(sin(add(x1, x3)), sin(y1), protectedDiv(y2, y2), acos(y3, y1)), y3, sub(sin(x2), sin(x1)), x2), acos(limit(add(y3, y1), tan(y3), limit(y3, limit(x1, conditional(max(limit(x1, y2, y2), asin(x2, x2)), protectedDiv(y3, y1)), y2), x3)), y3))</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">atan, cos, </t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asin, sub, y2, ang_vel, y3, conditional, add, x1, acos, x2, limit, x3, tan, protectedDiv, sin, max, y1, </t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1442.308611964176</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1442.308611964176</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1210.076479151252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1122.265024527062</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-922.6883893958251</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-917.517353073861</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-888.5983683439032</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-881.8947934595822</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-888.5983683439032</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-842.7434668940824</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-842.7434668940824</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-818.2019360255579</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-805.8377446780125</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-798.8856563967825</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-798</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>sub(max(cos(x1), max(cos(y3), max(cos(y3), x3))), ang_vel(y1, y2, y2, x2))</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asin, conditional, add, atan, acos, limit, tan, protectedDiv, sin, </t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sub, y2, y3, ang_vel, x1, x2, cos, x3, max, y1, </t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-1619.964498509805</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1619.964498509805</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1299.238280821162</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1299.238280821162</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1299.238280821162</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1299.238280821162</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1082.216647383359</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1151.103452580407</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1091.628168703129</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1091.628168703129</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-986.9940741711816</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-983.3046702951158</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-974.2705400266841</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-974.2705400266841</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-913.2553578182371</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-913.2553578182371</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-913.2553578182371</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-752.0061341960293</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-752.0061341960293</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-732.7577570647497</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-617.5256876666257</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-607.8416502439702</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-607.8416502439702</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-607.8416502439702</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-607.8416502439702</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-607.8416502439702</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-607</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>atan(conditional(x3, x1), protectedDiv(conditional(atan(x2, x1), y2), ang_vel(y1, y2, x3, max(conditional(add(y2, x3), conditional(sub(y3, y3), y2)), cos(x1)))))</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asin, acos, limit, tan, sin, </t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sub, y2, ang_vel, conditional, y3, atan, x1, add, protectedDiv, x2, cos, x3, max, y1, </t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1941.031432860915</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1791.499395120618</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1370.454336709915</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1370.454336709915</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1370.454336709915</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1370.454336709915</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-829.7111171653264</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-829.7111171653264</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-749.728351271869</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-520.2006354645862</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-581.6375869088503</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-507.9621848295731</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-424.7650624491251</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-405.5134734374636</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-372.5741659638643</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-372.5741659638643</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-350.6699524222988</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-350.6699524222988</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-350.6699524222988</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-310.4468697023653</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-310.4468697023653</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-280.1756378190058</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-280.1756378190058</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-280.1756378190058</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-254.2868649148867</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-280.1756378190058</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-254</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>sub(ang_vel(conditional(x2, sub(asin(asin(y2, x1), y1), y1)), tan(protectedDiv(x1, y1)), sin(x2), conditional(y2, limit(x1, y2, sub(atan(x1, x3), acos(y3, x1))))), y1)</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">add, cos, max, </t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asin, sub, y2, ang_vel, conditional, y3, x1, atan, acos, x2, limit, x3, tan, protectedDiv, sin, y1, </t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-1731.721096382269</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1417.990154509263</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1680.526693179986</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1121.590165741666</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1121.590165741666</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1076.506884726996</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1076.506884726996</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-942.081698275406</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-978.3045941305334</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-870.1673564621833</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-870.1673564621833</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-870.1673564621833</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-870.1673564621833</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-434.047639160293</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-434.047639160293</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-394.9991729263456</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-394.9991729263456</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-394.9991729263456</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-424.1300170352418</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-291.123804233541</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-291.123804233541</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-291.123804233541</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-291.123804233541</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-291.123804233541</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-291.123804233541</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-291.123804233541</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-291</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>atan(acos(limit(y2, x1, x3), tan(y2)), sub(x3, atan(x3, y1)))</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">asin, ang_vel, conditional, y3, add, x2, cos, protectedDiv, sin, max, </t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sub, y2, x1, atan, acos, limit, tan, x3, y1, </t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1012,6 +1012,546 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1450.392252482472</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1450.392252482472</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1450.392252482472</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1339.250701011006</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1339.250701011006</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1034.248189140555</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1247.897379399485</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1225.78532072732</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-971.5862553205345</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-845.5579614850009</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-845.5579614850009</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-822.3941131771093</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-822.3941131771093</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-809.1449917242714</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-809.1449917242714</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-809.1449917242714</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-774.5200934940744</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-774.5200934940744</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-774.5200934940744</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-774.5200934940744</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-606.1629503574208</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-606.1629503574208</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-606.1629503574208</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-606.1629503574208</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-606.1629503574208</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-606.1629503574208</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-606</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>sub(protectedDiv(add(protectedDiv(add(x3, y3), y2), conditional(y2, y1)), y3), tan(ang_vel(x3, y1, y3, x1)))</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">max, atan, limit, acos, x2, cos, asin, sin, </t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tan, y2, ang_vel, sub, protectedDiv, conditional, y1, x1, y3, x3, add, </t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-1846.511939803875</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1814.824988986811</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1643.775424731376</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1578.434304670724</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1611.060645760238</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1571.749795489733</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1562.356788893979</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1514.481553625497</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1471.719288795401</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-839.9296345291842</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-555.7937755520754</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-555.7937755520754</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-555.7937755520754</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-491.9180312454844</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-491.9180312454844</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-368.582643133616</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-491.9180312454844</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-470.7954276157421</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-422.3190395215176</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-390.5510587169434</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-390.5510587169434</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-390.5510587169434</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-386.6780925103196</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-339.7634857551262</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-339.7634857551262</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-339.7634857551262</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-339</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ang_vel(add(atan(protectedDiv(limit(x1, x1, x1), cos(y3)), y1), acos(y3, x2)), tan(ang_vel(x1, x1, y1, x2)), tan(atan(x2, x3)), sub(y3, atan(limit(x1, y2, x3), y1)))</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">max, conditional, asin, sin, </t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tan, ang_vel, y2, atan, protectedDiv, limit, y1, acos, x2, sub, x1, y3, x3, add, cos, </t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1789.86075472485</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1528.037694102767</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1528.037694102767</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1357.045211674417</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1357.045211674417</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1161.658315096036</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1161.658315096036</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1161.658315096036</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1153.448653591956</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1136.089205368618</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-1136.089205368618</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1136.089205368618</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1120.588294685263</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1120.588294685263</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-1097.867324816126</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-1071.788871636817</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-1066.342320838975</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-1040.95524327635</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-1005.576138894399</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-1005.576138894399</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-1005.576138894399</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-984.7614892657341</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-984.7614892657341</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-984.7614892657341</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-984.7614892657341</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-984.7614892657341</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-984</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>limit(add(ang_vel(x3, x2, x3, y1), sub(ang_vel(conditional(y3, x3), limit(x2, y3, y2), sub(y3, x3), ang_vel(y2, x2, x1, x1)), y1)), sin(conditional(sin(sin(y2)), y2)), conditional(protectedDiv(limit(x2, y3, y3), x3), sub(y2, y1)))</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">max, tan, atan, acos, cos, asin, </t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ang_vel, y2, limit, sub, y1, conditional, x2, protectedDiv, x1, y3, x3, add, sin, </t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-1869.666379095403</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1858.017431513293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1683.847603090057</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1638.039076445267</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1638.039076445267</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1638.039076445267</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1561.561743484393</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1503.110190170663</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1434.012662221568</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1441.600235894704</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1416.57105079192</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-1403.018450573949</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-1363.708964168934</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1265.797229648083</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-1265.797229648083</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-1265.797229648083</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-1224.686774815917</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-1224.686774815917</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-1224.686774815917</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-1224.686774815917</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-1224.686774815917</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-1224.686774815917</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-1224.686774815917</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-1115.965253686046</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-1196.46924446723</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-1221.312058234421</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-1115</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>limit(atan(acos(x1, asin(x3, y1)), x2), asin(x2, x3), limit(x1, x2, limit(x1, x2, tan(sub(sub(tan(x1), max(y2, y3)), x3)))))</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ang_vel, protectedDiv, conditional, add, cos, sin, </t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">max, tan, y2, limit, atan, y1, sub, acos, x2, x1, y3, x3, asin, </t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-1734.229883634241</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-1606.824069959779</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-863.7435572017827</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-844.8124702330682</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-747.8722419058496</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-747.8722419058496</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-747.8722419058496</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-747.8722419058496</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-657.8122769901919</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-657.8122769901919</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-633.5609828241129</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-633.5609828241129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-633.214810131536</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-548.7929538670101</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-548.7929538670101</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-548.7929538670101</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-513.0088329597651</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-453.6275175247511</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-453.6275175247511</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-453.6275175247511</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-490.27208051843</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-490.27208051843</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-490.27208051843</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-490.27208051843</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-490.27208051843</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-465.3125497698164</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-453</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>passed</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>sub(x3, ang_vel(tan(x3), asin(x1, limit(add(acos(add(y3, x1), add(add(y2, y3), tan(y1))), y3), acos(y3, x3), asin(y1, x2))), max(tan(protectedDiv(x1, y1)), acos(x1, y2)), x1))</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">atan, conditional, cos, sin, </t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">max, tan, ang_vel, y2, sub, limit, y1, protectedDiv, acos, x2, x1, y3, x3, add, asin, </t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473DA585-BFEA-4145-86E8-C64E1DC091E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E09ECA-942C-F54A-B31F-C24AC8CDDDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20320" yWindow="3580" windowWidth="20320" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U9" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
+++ b/pendulum/part_obs_pendulum/excel_sheets/part_obs_training_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Documents/Work Info/Research Assistant/deap_experiments/pendulum/part_obs_pendulum/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E09ECA-942C-F54A-B31F-C24AC8CDDDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8BC3C-5BCF-EF41-9E7E-0917C4F4D28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20320" yWindow="3580" windowWidth="20320" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,8 +744,8 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
